--- a/Mouse-Task_Analysis/Results_Mouse_Task_Analysis/Mixed-Model_Analysis/Result_Tables/Task_Pred_Diag_resTable.xlsx
+++ b/Mouse-Task_Analysis/Results_Mouse_Task_Analysis/Mixed-Model_Analysis/Result_Tables/Task_Pred_Diag_resTable.xlsx
@@ -582,7 +582,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -624,7 +624,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -662,7 +662,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -754,7 +754,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -796,7 +796,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -834,7 +834,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -918,7 +918,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -935,7 +935,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -977,7 +977,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>&lt; .05</t>
+          <t>&lt; .05*</t>
         </is>
       </c>
       <c r="I66" t="n">
